--- a/xmccamp/media/files_library/xmcamp.xlsx
+++ b/xmccamp/media/files_library/xmcamp.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="99">
   <si>
     <t>Participant: Name</t>
   </si>
@@ -35,6 +35,30 @@
     <t>Date registered</t>
   </si>
   <si>
+    <t>Active fee paid by registrant</t>
+  </si>
+  <si>
+    <t>ActiveAdvantage discount</t>
+  </si>
+  <si>
+    <t>Initial_Funds</t>
+  </si>
+  <si>
+    <t>Camper notes</t>
+  </si>
+  <si>
+    <t>Discount total</t>
+  </si>
+  <si>
+    <t>Discount used</t>
+  </si>
+  <si>
+    <t>Group assignments</t>
+  </si>
+  <si>
+    <t>Paid</t>
+  </si>
+  <si>
     <t>Participant: Address</t>
   </si>
   <si>
@@ -47,6 +71,21 @@
     <t>Participant: Age as of session</t>
   </si>
   <si>
+    <t>Participant: By indicating "YES" to this question, you acknowledge that no monies will be refunding due to can...</t>
+  </si>
+  <si>
+    <t>Participant: By indicating "YES" to this question, you authorize Liberty Communications, LLC to charge your credit card for outstanding balances for my child's PX fund, medications, transportation or other incidental expenses while attending camp.</t>
+  </si>
+  <si>
+    <t>Participant: By indicating "YES" to this question, you authorize Liberty Communications, LLC, to charge your credit card for damanged or lost items.</t>
+  </si>
+  <si>
+    <t>Participant: By indicating "YES" to this question, you authorize Liberty Communications, LLC, to use your image in marketing materials.</t>
+  </si>
+  <si>
+    <t>Participant: Can you play a snare drum or bugle?  If so, please summarize your experience and iindicate whethe...</t>
+  </si>
+  <si>
     <t>Participant: City</t>
   </si>
   <si>
@@ -56,6 +95,9 @@
     <t>Participant: Date of birth</t>
   </si>
   <si>
+    <t>Participant: Do you certify you are fully capable to participate in rigorous physical activity?</t>
+  </si>
+  <si>
     <t>Participant: Email address</t>
   </si>
   <si>
@@ -65,12 +107,30 @@
     <t>Participant: Grade</t>
   </si>
   <si>
+    <t>Participant: Has the applicant ever completed any residential military-style training program of seven days or...</t>
+  </si>
+  <si>
+    <t>Participant: Have you been a Cadet in another Program?</t>
+  </si>
+  <si>
     <t>Participant: Home phone number</t>
   </si>
   <si>
+    <t>Participant: How did you initially learn about Extreme Military Challenge!</t>
+  </si>
+  <si>
+    <t>Participant: If a Cadet in another program, give a summary of experience, including Cadet rank, training proga...</t>
+  </si>
+  <si>
     <t>Participant: Last name</t>
   </si>
   <si>
+    <t>Participant: Medications</t>
+  </si>
+  <si>
+    <t>Participant: Parents:  Are YOU interested in attending our Three-Day Ranger Corporate Adventure Program July 18-21, 2015?  If so, go to the Admissions Package for Details.</t>
+  </si>
+  <si>
     <t>Participant: Please explain what you would like to have your son or daugher accomplish while at camp?  Explain any special situations or other information the staff should know about your child.</t>
   </si>
   <si>
@@ -83,6 +143,9 @@
     <t>Participant: Zip code</t>
   </si>
   <si>
+    <t>Photo</t>
+  </si>
+  <si>
     <t>Primary P/G: Business phone number</t>
   </si>
   <si>
@@ -104,6 +167,9 @@
     <t>Primary P/G: Last name</t>
   </si>
   <si>
+    <t>Registration status</t>
+  </si>
+  <si>
     <t>Secondary P/G: Business phone number</t>
   </si>
   <si>
@@ -143,6 +209,15 @@
     <t>Session type</t>
   </si>
   <si>
+    <t>Sold</t>
+  </si>
+  <si>
+    <t>Tuition</t>
+  </si>
+  <si>
+    <t>Waivers</t>
+  </si>
+  <si>
     <t>Jacob Shaia</t>
   </si>
   <si>
@@ -153,6 +228,9 @@
   </si>
   <si>
     <t>4Wks: Recruit to Recon Course</t>
+  </si>
+  <si>
+    <t>EARLYFOR2015: -$355.00;</t>
   </si>
   <si>
     <t>4113 Olney-Laytonsville Rd
@@ -163,13 +241,19 @@
     <t>4113 Olney-Laytonsville Rd</t>
   </si>
   <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
     <t>Olney</t>
   </si>
   <si>
     <t>United States</t>
   </si>
   <si>
-    <t>hgshaia@verizon.net</t>
+    <t>joseph.m.landsr@gmail.com</t>
   </si>
   <si>
     <t>Jacob</t>
@@ -178,24 +262,33 @@
     <t>10th</t>
   </si>
   <si>
+    <t>None</t>
+  </si>
+  <si>
     <t>3019283531</t>
   </si>
   <si>
+    <t>No experience.</t>
+  </si>
+  <si>
     <t>Shaia</t>
   </si>
   <si>
+    <t>Cetirizine for Allergies.</t>
+  </si>
+  <si>
     <t>I would like my son Jacob to experience this challenge to see if it is what he wants in a career.  I also want him to learn and grow as a young man.</t>
   </si>
   <si>
     <t>MD</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
     <t>20832</t>
   </si>
   <si>
+    <t>Participant photos cannot be exported.</t>
+  </si>
+  <si>
     <t>3016574322</t>
   </si>
   <si>
@@ -203,6 +296,9 @@
   </si>
   <si>
     <t>3015703115</t>
+  </si>
+  <si>
+    <t>Confirmed</t>
   </si>
   <si>
     <t>Enrollment and Registration,
@@ -219,85 +315,23 @@
     <t>First Year Programs</t>
   </si>
   <si>
-    <t>Bailey Jacob Miller</t>
-  </si>
-  <si>
-    <t>Melissa L. Miller</t>
-  </si>
-  <si>
-    <t>4728 Whitewater Lane
-Crestview, FL 32539
-United States</t>
-  </si>
-  <si>
-    <t>4728 Whitewater Lane</t>
-  </si>
-  <si>
-    <t>Crestview</t>
-  </si>
-  <si>
-    <t>melissaque@hotmail.com</t>
-  </si>
-  <si>
-    <t>Bailey Jacob</t>
-  </si>
-  <si>
-    <t>12th</t>
-  </si>
-  <si>
-    <t>8503338658</t>
-  </si>
-  <si>
-    <t>Miller</t>
-  </si>
-  <si>
-    <t>Military values, giving back to his community and being a well rounded person.</t>
-  </si>
-  <si>
-    <t>FL</t>
-  </si>
-  <si>
-    <t>32539</t>
-  </si>
-  <si>
-    <t>Melissa L.</t>
-  </si>
-  <si>
-    <t>FEMALE</t>
-  </si>
-  <si>
-    <t>8508928511</t>
-  </si>
-  <si>
-    <t>8505336275</t>
-  </si>
-  <si>
-    <t>waidene.bayne@yahoo.com</t>
-  </si>
-  <si>
-    <t>Waidene R.</t>
-  </si>
-  <si>
-    <t>Bayne</t>
-  </si>
-  <si>
-    <t>Waidene R. Bayne</t>
-  </si>
-  <si>
-    <t>Enrollment and Registration,
-PX Fund - Gifts, accessories and snacks</t>
+    <t>Enrollment and Registration</t>
+  </si>
+  <si>
+    <t>Standard Release and Acknowledgement - Received</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
     <numFmt numFmtId="165" formatCode="#"/>
     <numFmt numFmtId="166" formatCode="M/D/YYYY"/>
+    <numFmt numFmtId="167" formatCode="\$#,##0.00_);&quot;($&quot;#,##0.00\)"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -319,13 +353,27 @@
       <name val="Arial"/>
       <family val="0"/>
     </font>
+    <font>
+      <u val="single"/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -337,7 +385,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
+  <cellStyleXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -361,8 +409,11 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -379,18 +430,35 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="7">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="*unknown*" xfId="20" builtinId="8" customBuiltin="false"/>
   </cellStyles>
 </styleSheet>
 </file>
@@ -400,24 +468,31 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AP3"/>
+  <dimension ref="A1:BO25"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AJ1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AJ1" activeCellId="0" sqref="AJ1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A51" activeCellId="0" sqref="A51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="5" min="1" style="0" width="20.004048582996"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="50.0040485829959"/>
-    <col collapsed="false" hidden="false" max="12" min="7" style="0" width="20.004048582996"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="50.0040485829959"/>
-    <col collapsed="false" hidden="false" max="38" min="14" style="0" width="20.004048582996"/>
-    <col collapsed="false" hidden="false" max="39" min="39" style="0" width="50.0040485829959"/>
-    <col collapsed="false" hidden="false" max="40" min="40" style="0" width="20.004048582996"/>
-    <col collapsed="false" hidden="false" max="41" min="41" style="0" width="50.0040485829959"/>
-    <col collapsed="false" hidden="false" max="42" min="42" style="0" width="20.004048582996"/>
-    <col collapsed="false" hidden="false" max="1025" min="43" style="0" width="8.5748987854251"/>
+    <col collapsed="false" hidden="false" max="9" min="7" style="0" width="14.9959514170041"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="40"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="14.9959514170041"/>
+    <col collapsed="false" hidden="false" max="13" min="12" style="0" width="20.004048582996"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="14.9959514170041"/>
+    <col collapsed="false" hidden="false" max="25" min="15" style="0" width="20.004048582996"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="50.0040485829959"/>
+    <col collapsed="false" hidden="false" max="60" min="27" style="0" width="20.004048582996"/>
+    <col collapsed="false" hidden="false" max="61" min="61" style="0" width="50.0040485829959"/>
+    <col collapsed="false" hidden="false" max="62" min="62" style="0" width="20.004048582996"/>
+    <col collapsed="false" hidden="false" max="63" min="63" style="0" width="50.0040485829959"/>
+    <col collapsed="false" hidden="false" max="64" min="64" style="0" width="20.004048582996"/>
+    <col collapsed="false" hidden="false" max="65" min="65" style="0" width="14.9959514170041"/>
+    <col collapsed="false" hidden="false" max="67" min="66" style="0" width="20.004048582996"/>
+    <col collapsed="false" hidden="false" max="1025" min="68" style="0" width="8.55465587044534"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -547,237 +622,649 @@
       <c r="AP1" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AQ1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="187.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>42</v>
+        <v>67</v>
       </c>
       <c r="B2" s="2" t="n">
         <v>16</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>43</v>
+        <v>68</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>44</v>
+        <v>69</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="F2" s="3" t="n">
         <v>41897.5896296296</v>
       </c>
-      <c r="G2" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H2" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="J2" s="2" t="n">
+      <c r="G2" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="H2" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" s="4" t="n">
+        <v>608.14</v>
+      </c>
+      <c r="J2" s="5"/>
+      <c r="K2" s="4" t="n">
+        <v>-355</v>
+      </c>
+      <c r="L2" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="N2" s="4" t="n">
+        <v>2911.86</v>
+      </c>
+      <c r="O2" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="P2" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="R2" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="K2" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="L2" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="M2" s="3" t="n">
+      <c r="S2" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="T2" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="U2" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="W2" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="X2" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y2" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="Z2" s="3" t="n">
         <v>36241</v>
       </c>
-      <c r="N2" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="O2" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="P2" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q2" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="R2" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="S2" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="T2" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="U2" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="V2" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="W2" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="X2" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="Y2" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="Z2" s="0" t="s">
-        <v>60</v>
-      </c>
       <c r="AA2" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="AB2" s="0" t="s">
-        <v>61</v>
+        <v>74</v>
+      </c>
+      <c r="AB2" s="7" t="s">
+        <v>78</v>
       </c>
       <c r="AC2" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="AL2" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="AM2" s="3" t="n">
+        <v>79</v>
+      </c>
+      <c r="AD2" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="AE2" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF2" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="AG2" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI2" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="AJ2" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="AK2" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="AM2" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="AN2" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="AO2" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP2" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="AQ2" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="AR2" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="AS2" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="AT2" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="AU2" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="AV2" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="AW2" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="AX2" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="AY2" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="BH2" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="BI2" s="3" t="n">
         <v>42211.1659722222</v>
       </c>
-      <c r="AN2" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="AO2" s="3" t="n">
+      <c r="BJ2" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="BK2" s="3" t="n">
         <v>42183.1666666667</v>
       </c>
-      <c r="AP2" s="0" t="s">
-        <v>64</v>
+      <c r="BL2" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="BM2" s="4" t="n">
+        <v>3520</v>
+      </c>
+      <c r="BN2" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="BO2" s="0" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="B3" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="F3" s="3" t="n">
-        <v>41912.4318055556</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="H3" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="J3" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="K3" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="L3" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="M3" s="3" t="n">
-        <v>35767</v>
-      </c>
-      <c r="N3" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="O3" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="P3" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q3" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="R3" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="S3" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="T3" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="U3" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="V3" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="X3" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="Y3" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="Z3" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="AA3" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="AB3" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="AC3" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="AD3" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="AE3" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="AF3" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="AG3" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="AH3" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="AJ3" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="AK3" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="AL3" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="AM3" s="3" t="n">
-        <v>42211.1659722222</v>
-      </c>
-      <c r="AN3" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="AO3" s="3" t="n">
-        <v>42183.1666666667</v>
-      </c>
-      <c r="AP3" s="0" t="s">
-        <v>64</v>
-      </c>
+      <c r="B3" s="2"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="6"/>
+      <c r="R3" s="2"/>
+      <c r="Z3" s="3"/>
+      <c r="BH3" s="6"/>
+      <c r="BI3" s="3"/>
+      <c r="BK3" s="3"/>
+      <c r="BM3" s="4"/>
+    </row>
+    <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="2"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="6"/>
+      <c r="R4" s="2"/>
+      <c r="Z4" s="3"/>
+      <c r="BH4" s="6"/>
+      <c r="BI4" s="3"/>
+      <c r="BK4" s="3"/>
+      <c r="BM4" s="4"/>
+    </row>
+    <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="2"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="6"/>
+      <c r="R5" s="2"/>
+      <c r="Z5" s="3"/>
+      <c r="AI5" s="6"/>
+      <c r="AM5" s="6"/>
+      <c r="BH5" s="6"/>
+      <c r="BI5" s="3"/>
+      <c r="BK5" s="3"/>
+      <c r="BM5" s="4"/>
+    </row>
+    <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="2"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="6"/>
+      <c r="R6" s="2"/>
+      <c r="Z6" s="3"/>
+      <c r="BI6" s="3"/>
+      <c r="BK6" s="3"/>
+      <c r="BM6" s="4"/>
+    </row>
+    <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="2"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="6"/>
+      <c r="R7" s="2"/>
+      <c r="Z7" s="3"/>
+      <c r="BH7" s="6"/>
+      <c r="BI7" s="3"/>
+      <c r="BK7" s="3"/>
+      <c r="BM7" s="4"/>
+    </row>
+    <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="2"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="6"/>
+      <c r="R8" s="2"/>
+      <c r="Z8" s="3"/>
+      <c r="BH8" s="6"/>
+      <c r="BI8" s="3"/>
+      <c r="BK8" s="3"/>
+      <c r="BM8" s="4"/>
+    </row>
+    <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="2"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="6"/>
+      <c r="R9" s="2"/>
+      <c r="Z9" s="3"/>
+      <c r="BH9" s="6"/>
+      <c r="BI9" s="3"/>
+      <c r="BK9" s="3"/>
+      <c r="BM9" s="4"/>
+    </row>
+    <row r="10" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="8"/>
+      <c r="B10" s="2"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="6"/>
+      <c r="R10" s="2"/>
+      <c r="Z10" s="3"/>
+      <c r="BH10" s="6"/>
+      <c r="BI10" s="3"/>
+      <c r="BK10" s="3"/>
+      <c r="BM10" s="4"/>
+    </row>
+    <row r="11" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="8"/>
+      <c r="B11" s="2"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="6"/>
+      <c r="R11" s="2"/>
+      <c r="Z11" s="3"/>
+      <c r="BH11" s="6"/>
+      <c r="BI11" s="3"/>
+      <c r="BK11" s="3"/>
+      <c r="BM11" s="4"/>
+    </row>
+    <row r="12" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="2"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="4"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="6"/>
+      <c r="R12" s="2"/>
+      <c r="Z12" s="3"/>
+      <c r="BH12" s="6"/>
+      <c r="BI12" s="3"/>
+      <c r="BK12" s="3"/>
+      <c r="BM12" s="4"/>
+    </row>
+    <row r="13" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="2"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="4"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="6"/>
+      <c r="R13" s="2"/>
+      <c r="Z13" s="3"/>
+      <c r="BH13" s="6"/>
+      <c r="BI13" s="3"/>
+      <c r="BK13" s="3"/>
+      <c r="BM13" s="4"/>
+    </row>
+    <row r="14" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="2"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="4"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="6"/>
+      <c r="R14" s="2"/>
+      <c r="Z14" s="3"/>
+      <c r="BH14" s="6"/>
+      <c r="BI14" s="3"/>
+      <c r="BK14" s="3"/>
+      <c r="BM14" s="4"/>
+    </row>
+    <row r="15" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="2"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="4"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="6"/>
+      <c r="R15" s="2"/>
+      <c r="Z15" s="3"/>
+      <c r="BI15" s="3"/>
+      <c r="BK15" s="3"/>
+      <c r="BM15" s="4"/>
+    </row>
+    <row r="16" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="2"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="4"/>
+      <c r="N16" s="4"/>
+      <c r="O16" s="6"/>
+      <c r="R16" s="2"/>
+      <c r="Z16" s="3"/>
+      <c r="BH16" s="6"/>
+      <c r="BI16" s="3"/>
+      <c r="BK16" s="3"/>
+      <c r="BM16" s="4"/>
+    </row>
+    <row r="17" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="8"/>
+      <c r="B17" s="2"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="4"/>
+      <c r="N17" s="4"/>
+      <c r="O17" s="6"/>
+      <c r="R17" s="2"/>
+      <c r="Z17" s="3"/>
+      <c r="BH17" s="6"/>
+      <c r="BI17" s="3"/>
+      <c r="BK17" s="3"/>
+      <c r="BM17" s="4"/>
+    </row>
+    <row r="18" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="8"/>
+      <c r="B18" s="2"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="4"/>
+      <c r="N18" s="4"/>
+      <c r="O18" s="6"/>
+      <c r="R18" s="2"/>
+      <c r="Z18" s="3"/>
+      <c r="BI18" s="3"/>
+      <c r="BK18" s="3"/>
+      <c r="BM18" s="4"/>
+    </row>
+    <row r="19" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="2"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="4"/>
+      <c r="N19" s="4"/>
+      <c r="O19" s="6"/>
+      <c r="R19" s="2"/>
+      <c r="Z19" s="3"/>
+      <c r="BH19" s="6"/>
+      <c r="BI19" s="3"/>
+      <c r="BK19" s="3"/>
+      <c r="BM19" s="4"/>
+    </row>
+    <row r="20" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20" s="2"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="4"/>
+      <c r="N20" s="4"/>
+      <c r="O20" s="6"/>
+      <c r="R20" s="2"/>
+      <c r="Z20" s="3"/>
+      <c r="BH20" s="6"/>
+      <c r="BI20" s="3"/>
+      <c r="BK20" s="3"/>
+      <c r="BM20" s="4"/>
+    </row>
+    <row r="21" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21" s="2"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="4"/>
+      <c r="N21" s="4"/>
+      <c r="O21" s="6"/>
+      <c r="R21" s="2"/>
+      <c r="Z21" s="3"/>
+      <c r="BI21" s="3"/>
+      <c r="BK21" s="3"/>
+      <c r="BM21" s="4"/>
+    </row>
+    <row r="22" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22" s="2"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="4"/>
+      <c r="N22" s="4"/>
+      <c r="O22" s="6"/>
+      <c r="R22" s="2"/>
+      <c r="Z22" s="3"/>
+      <c r="BH22" s="6"/>
+      <c r="BI22" s="3"/>
+      <c r="BK22" s="3"/>
+      <c r="BM22" s="4"/>
+    </row>
+    <row r="23" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B23" s="2"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="4"/>
+      <c r="N23" s="4"/>
+      <c r="O23" s="6"/>
+      <c r="R23" s="2"/>
+      <c r="Z23" s="3"/>
+      <c r="AM23" s="6"/>
+      <c r="BH23" s="6"/>
+      <c r="BI23" s="3"/>
+      <c r="BK23" s="3"/>
+      <c r="BM23" s="4"/>
+    </row>
+    <row r="24" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="8"/>
+      <c r="B24" s="2"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="4"/>
+      <c r="N24" s="4"/>
+      <c r="O24" s="6"/>
+      <c r="R24" s="2"/>
+      <c r="Z24" s="3"/>
+      <c r="BI24" s="3"/>
+      <c r="BK24" s="3"/>
+      <c r="BM24" s="4"/>
+    </row>
+    <row r="25" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="8"/>
+      <c r="B25" s="2"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="4"/>
+      <c r="N25" s="4"/>
+      <c r="O25" s="6"/>
+      <c r="R25" s="2"/>
+      <c r="Z25" s="3"/>
+      <c r="BI25" s="3"/>
+      <c r="BK25" s="3"/>
+      <c r="BM25" s="4"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="AB2" r:id="rId1" display="joseph.m.landsr@gmail.com"/>
+    <hyperlink ref="AT2" r:id="rId2" display="joseph.m.landsr@gmail.com"/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;L&amp;"Calibri,Bold"&amp;17 Custom Report - Extreme Military Challenge! Military Summer Camp 2015</oddHeader>
     <oddFooter/>
   </headerFooter>
-  <rowBreaks count="1" manualBreakCount="1">
-    <brk id="4" man="true" max="16383" min="0"/>
-  </rowBreaks>
 </worksheet>
 </file>
--- a/xmccamp/media/files_library/xmcamp.xlsx
+++ b/xmccamp/media/files_library/xmcamp.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="600" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16224" windowHeight="8196"/>
   </bookViews>
   <sheets>
-    <sheet name="Custom Report - Extreme Militar" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Custom Report - Extreme Militar" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -251,9 +250,6 @@
   </si>
   <si>
     <t>United States</t>
-  </si>
-  <si>
-    <t>joseph.m.landsr@gmail.com</t>
   </si>
   <si>
     <t>Jacob</t>
@@ -320,18 +316,19 @@
   <si>
     <t>Standard Release and Acknowledgement - Received</t>
   </si>
+  <si>
+    <t>tyler.xmccamp@gmail.com</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
-    <numFmt numFmtId="165" formatCode="#"/>
-    <numFmt numFmtId="166" formatCode="M/D/YYYY"/>
-    <numFmt numFmtId="167" formatCode="\$#,##0.00_);&quot;($&quot;#,##0.00\)"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="#"/>
+    <numFmt numFmtId="165" formatCode="\$#,##0.00_);&quot;($&quot;#,##0.00\)"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -339,22 +336,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <u val="single"/>
+      <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
@@ -377,7 +359,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -385,117 +367,354 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="9">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="7">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="*unknown*" xfId="20" builtinId="8" customBuiltin="false"/>
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:BO25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:BO24"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A51" activeCellId="0" sqref="A51"/>
+    <sheetView tabSelected="1" topLeftCell="AQ1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AQ3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col collapsed="false" hidden="false" max="5" min="1" style="0" width="20.004048582996"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="50.0040485829959"/>
-    <col collapsed="false" hidden="false" max="9" min="7" style="0" width="14.9959514170041"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="40"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="14.9959514170041"/>
-    <col collapsed="false" hidden="false" max="13" min="12" style="0" width="20.004048582996"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="14.9959514170041"/>
-    <col collapsed="false" hidden="false" max="25" min="15" style="0" width="20.004048582996"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="50.0040485829959"/>
-    <col collapsed="false" hidden="false" max="60" min="27" style="0" width="20.004048582996"/>
-    <col collapsed="false" hidden="false" max="61" min="61" style="0" width="50.0040485829959"/>
-    <col collapsed="false" hidden="false" max="62" min="62" style="0" width="20.004048582996"/>
-    <col collapsed="false" hidden="false" max="63" min="63" style="0" width="50.0040485829959"/>
-    <col collapsed="false" hidden="false" max="64" min="64" style="0" width="20.004048582996"/>
-    <col collapsed="false" hidden="false" max="65" min="65" style="0" width="14.9959514170041"/>
-    <col collapsed="false" hidden="false" max="67" min="66" style="0" width="20.004048582996"/>
-    <col collapsed="false" hidden="false" max="1025" min="68" style="0" width="8.55465587044534"/>
+    <col min="1" max="5" width="20"/>
+    <col min="6" max="6" width="50"/>
+    <col min="7" max="9" width="15"/>
+    <col min="10" max="10" width="40"/>
+    <col min="11" max="11" width="15"/>
+    <col min="12" max="13" width="20"/>
+    <col min="14" max="14" width="15"/>
+    <col min="15" max="25" width="20"/>
+    <col min="26" max="26" width="50"/>
+    <col min="27" max="60" width="20"/>
+    <col min="61" max="61" width="50"/>
+    <col min="62" max="62" width="20"/>
+    <col min="63" max="63" width="50"/>
+    <col min="64" max="64" width="20"/>
+    <col min="65" max="65" width="15"/>
+    <col min="66" max="67" width="20"/>
+    <col min="68" max="1025" width="8.5546875"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -698,169 +917,169 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="187.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" spans="1:67" ht="69" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>67</v>
       </c>
-      <c r="B2" s="2" t="n">
+      <c r="B2" s="2">
         <v>16</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" t="s">
         <v>68</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" t="s">
         <v>69</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="E2" t="s">
         <v>70</v>
       </c>
-      <c r="F2" s="3" t="n">
-        <v>41897.5896296296</v>
-      </c>
-      <c r="G2" s="4" t="n">
+      <c r="F2" s="3">
+        <v>41897.589629629598</v>
+      </c>
+      <c r="G2" s="4">
         <v>3</v>
       </c>
-      <c r="H2" s="4" t="n">
+      <c r="H2" s="4">
         <v>0</v>
       </c>
-      <c r="I2" s="4" t="n">
+      <c r="I2" s="4">
         <v>608.14</v>
       </c>
       <c r="J2" s="5"/>
-      <c r="K2" s="4" t="n">
+      <c r="K2" s="4">
         <v>-355</v>
       </c>
-      <c r="L2" s="0" t="s">
+      <c r="L2" t="s">
         <v>71</v>
       </c>
-      <c r="N2" s="4" t="n">
+      <c r="N2" s="4">
         <v>2911.86</v>
       </c>
       <c r="O2" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="P2" s="0" t="s">
+      <c r="P2" t="s">
         <v>73</v>
       </c>
-      <c r="R2" s="2" t="n">
+      <c r="R2" s="2">
         <v>16</v>
       </c>
-      <c r="S2" s="0" t="s">
+      <c r="S2" t="s">
         <v>74</v>
       </c>
-      <c r="T2" s="0" t="s">
+      <c r="T2" t="s">
         <v>74</v>
       </c>
-      <c r="U2" s="0" t="s">
+      <c r="U2" t="s">
         <v>74</v>
       </c>
-      <c r="W2" s="0" t="s">
+      <c r="W2" t="s">
         <v>75</v>
       </c>
-      <c r="X2" s="0" t="s">
+      <c r="X2" t="s">
         <v>76</v>
       </c>
-      <c r="Y2" s="0" t="s">
+      <c r="Y2" t="s">
         <v>77</v>
       </c>
-      <c r="Z2" s="3" t="n">
+      <c r="Z2" s="3">
         <v>36241</v>
       </c>
-      <c r="AA2" s="0" t="s">
+      <c r="AA2" t="s">
         <v>74</v>
       </c>
-      <c r="AB2" s="7" t="s">
+      <c r="AB2" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="AC2" t="s">
         <v>78</v>
       </c>
-      <c r="AC2" s="0" t="s">
+      <c r="AD2" t="s">
         <v>79</v>
       </c>
-      <c r="AD2" s="0" t="s">
+      <c r="AE2" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF2" t="s">
         <v>80</v>
       </c>
-      <c r="AE2" s="0" t="s">
+      <c r="AG2" t="s">
+        <v>81</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>83</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>85</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>86</v>
+      </c>
+      <c r="AO2" t="s">
         <v>75</v>
       </c>
-      <c r="AF2" s="0" t="s">
+      <c r="AP2" t="s">
+        <v>87</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>89</v>
+      </c>
+      <c r="AS2" t="s">
         <v>81</v>
       </c>
-      <c r="AG2" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="AI2" s="0" t="s">
+      <c r="AT2" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>90</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>68</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AX2" t="s">
         <v>83</v>
       </c>
-      <c r="AJ2" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="AK2" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="AM2" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="AN2" s="0" t="s">
-        <v>87</v>
-      </c>
-      <c r="AO2" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="AP2" s="0" t="s">
-        <v>88</v>
-      </c>
-      <c r="AQ2" s="0" t="s">
-        <v>89</v>
-      </c>
-      <c r="AR2" s="0" t="s">
-        <v>90</v>
-      </c>
-      <c r="AS2" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="AT2" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="AU2" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="AV2" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="AW2" s="0" t="s">
+      <c r="AY2" t="s">
         <v>92</v>
       </c>
-      <c r="AX2" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="AY2" s="0" t="s">
+      <c r="BH2" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="BH2" s="6" t="s">
+      <c r="BI2" s="3">
+        <v>42211.165972222203</v>
+      </c>
+      <c r="BJ2" t="s">
         <v>94</v>
       </c>
-      <c r="BI2" s="3" t="n">
-        <v>42211.1659722222</v>
-      </c>
-      <c r="BJ2" s="0" t="s">
+      <c r="BK2" s="3">
+        <v>42183.166666666701</v>
+      </c>
+      <c r="BL2" t="s">
         <v>95</v>
       </c>
-      <c r="BK2" s="3" t="n">
-        <v>42183.1666666667</v>
-      </c>
-      <c r="BL2" s="0" t="s">
+      <c r="BM2" s="4">
+        <v>3520</v>
+      </c>
+      <c r="BN2" t="s">
         <v>96</v>
       </c>
-      <c r="BM2" s="4" t="n">
-        <v>3520</v>
-      </c>
-      <c r="BN2" s="0" t="s">
+      <c r="BO2" t="s">
         <v>97</v>
       </c>
-      <c r="BO2" s="0" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="3" spans="1:67" x14ac:dyDescent="0.3">
       <c r="B3" s="2"/>
       <c r="F3" s="3"/>
       <c r="G3" s="4"/>
@@ -877,7 +1096,7 @@
       <c r="BK3" s="3"/>
       <c r="BM3" s="4"/>
     </row>
-    <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:67" x14ac:dyDescent="0.3">
       <c r="B4" s="2"/>
       <c r="F4" s="3"/>
       <c r="G4" s="4"/>
@@ -889,12 +1108,14 @@
       <c r="O4" s="6"/>
       <c r="R4" s="2"/>
       <c r="Z4" s="3"/>
+      <c r="AI4" s="6"/>
+      <c r="AM4" s="6"/>
       <c r="BH4" s="6"/>
       <c r="BI4" s="3"/>
       <c r="BK4" s="3"/>
       <c r="BM4" s="4"/>
     </row>
-    <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:67" x14ac:dyDescent="0.3">
       <c r="B5" s="2"/>
       <c r="F5" s="3"/>
       <c r="G5" s="4"/>
@@ -906,14 +1127,11 @@
       <c r="O5" s="6"/>
       <c r="R5" s="2"/>
       <c r="Z5" s="3"/>
-      <c r="AI5" s="6"/>
-      <c r="AM5" s="6"/>
-      <c r="BH5" s="6"/>
       <c r="BI5" s="3"/>
       <c r="BK5" s="3"/>
       <c r="BM5" s="4"/>
     </row>
-    <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:67" x14ac:dyDescent="0.3">
       <c r="B6" s="2"/>
       <c r="F6" s="3"/>
       <c r="G6" s="4"/>
@@ -925,11 +1143,12 @@
       <c r="O6" s="6"/>
       <c r="R6" s="2"/>
       <c r="Z6" s="3"/>
+      <c r="BH6" s="6"/>
       <c r="BI6" s="3"/>
       <c r="BK6" s="3"/>
       <c r="BM6" s="4"/>
     </row>
-    <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:67" x14ac:dyDescent="0.3">
       <c r="B7" s="2"/>
       <c r="F7" s="3"/>
       <c r="G7" s="4"/>
@@ -946,7 +1165,7 @@
       <c r="BK7" s="3"/>
       <c r="BM7" s="4"/>
     </row>
-    <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:67" x14ac:dyDescent="0.3">
       <c r="B8" s="2"/>
       <c r="F8" s="3"/>
       <c r="G8" s="4"/>
@@ -963,7 +1182,8 @@
       <c r="BK8" s="3"/>
       <c r="BM8" s="4"/>
     </row>
-    <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:67" x14ac:dyDescent="0.3">
+      <c r="A9" s="7"/>
       <c r="B9" s="2"/>
       <c r="F9" s="3"/>
       <c r="G9" s="4"/>
@@ -980,8 +1200,8 @@
       <c r="BK9" s="3"/>
       <c r="BM9" s="4"/>
     </row>
-    <row r="10" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="8"/>
+    <row r="10" spans="1:67" x14ac:dyDescent="0.3">
+      <c r="A10" s="7"/>
       <c r="B10" s="2"/>
       <c r="F10" s="3"/>
       <c r="G10" s="4"/>
@@ -998,8 +1218,7 @@
       <c r="BK10" s="3"/>
       <c r="BM10" s="4"/>
     </row>
-    <row r="11" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="8"/>
+    <row r="11" spans="1:67" x14ac:dyDescent="0.3">
       <c r="B11" s="2"/>
       <c r="F11" s="3"/>
       <c r="G11" s="4"/>
@@ -1016,7 +1235,7 @@
       <c r="BK11" s="3"/>
       <c r="BM11" s="4"/>
     </row>
-    <row r="12" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:67" x14ac:dyDescent="0.3">
       <c r="B12" s="2"/>
       <c r="F12" s="3"/>
       <c r="G12" s="4"/>
@@ -1033,7 +1252,7 @@
       <c r="BK12" s="3"/>
       <c r="BM12" s="4"/>
     </row>
-    <row r="13" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:67" x14ac:dyDescent="0.3">
       <c r="B13" s="2"/>
       <c r="F13" s="3"/>
       <c r="G13" s="4"/>
@@ -1050,7 +1269,7 @@
       <c r="BK13" s="3"/>
       <c r="BM13" s="4"/>
     </row>
-    <row r="14" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:67" x14ac:dyDescent="0.3">
       <c r="B14" s="2"/>
       <c r="F14" s="3"/>
       <c r="G14" s="4"/>
@@ -1062,12 +1281,11 @@
       <c r="O14" s="6"/>
       <c r="R14" s="2"/>
       <c r="Z14" s="3"/>
-      <c r="BH14" s="6"/>
       <c r="BI14" s="3"/>
       <c r="BK14" s="3"/>
       <c r="BM14" s="4"/>
     </row>
-    <row r="15" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:67" x14ac:dyDescent="0.3">
       <c r="B15" s="2"/>
       <c r="F15" s="3"/>
       <c r="G15" s="4"/>
@@ -1079,11 +1297,13 @@
       <c r="O15" s="6"/>
       <c r="R15" s="2"/>
       <c r="Z15" s="3"/>
+      <c r="BH15" s="6"/>
       <c r="BI15" s="3"/>
       <c r="BK15" s="3"/>
       <c r="BM15" s="4"/>
     </row>
-    <row r="16" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:67" x14ac:dyDescent="0.3">
+      <c r="A16" s="7"/>
       <c r="B16" s="2"/>
       <c r="F16" s="3"/>
       <c r="G16" s="4"/>
@@ -1100,8 +1320,8 @@
       <c r="BK16" s="3"/>
       <c r="BM16" s="4"/>
     </row>
-    <row r="17" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="8"/>
+    <row r="17" spans="1:65" x14ac:dyDescent="0.3">
+      <c r="A17" s="7"/>
       <c r="B17" s="2"/>
       <c r="F17" s="3"/>
       <c r="G17" s="4"/>
@@ -1113,13 +1333,11 @@
       <c r="O17" s="6"/>
       <c r="R17" s="2"/>
       <c r="Z17" s="3"/>
-      <c r="BH17" s="6"/>
       <c r="BI17" s="3"/>
       <c r="BK17" s="3"/>
       <c r="BM17" s="4"/>
     </row>
-    <row r="18" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="8"/>
+    <row r="18" spans="1:65" x14ac:dyDescent="0.3">
       <c r="B18" s="2"/>
       <c r="F18" s="3"/>
       <c r="G18" s="4"/>
@@ -1131,11 +1349,12 @@
       <c r="O18" s="6"/>
       <c r="R18" s="2"/>
       <c r="Z18" s="3"/>
+      <c r="BH18" s="6"/>
       <c r="BI18" s="3"/>
       <c r="BK18" s="3"/>
       <c r="BM18" s="4"/>
     </row>
-    <row r="19" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:65" x14ac:dyDescent="0.3">
       <c r="B19" s="2"/>
       <c r="F19" s="3"/>
       <c r="G19" s="4"/>
@@ -1152,7 +1371,7 @@
       <c r="BK19" s="3"/>
       <c r="BM19" s="4"/>
     </row>
-    <row r="20" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:65" x14ac:dyDescent="0.3">
       <c r="B20" s="2"/>
       <c r="F20" s="3"/>
       <c r="G20" s="4"/>
@@ -1164,12 +1383,11 @@
       <c r="O20" s="6"/>
       <c r="R20" s="2"/>
       <c r="Z20" s="3"/>
-      <c r="BH20" s="6"/>
       <c r="BI20" s="3"/>
       <c r="BK20" s="3"/>
       <c r="BM20" s="4"/>
     </row>
-    <row r="21" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:65" x14ac:dyDescent="0.3">
       <c r="B21" s="2"/>
       <c r="F21" s="3"/>
       <c r="G21" s="4"/>
@@ -1181,11 +1399,12 @@
       <c r="O21" s="6"/>
       <c r="R21" s="2"/>
       <c r="Z21" s="3"/>
+      <c r="BH21" s="6"/>
       <c r="BI21" s="3"/>
       <c r="BK21" s="3"/>
       <c r="BM21" s="4"/>
     </row>
-    <row r="22" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:65" x14ac:dyDescent="0.3">
       <c r="B22" s="2"/>
       <c r="F22" s="3"/>
       <c r="G22" s="4"/>
@@ -1197,12 +1416,14 @@
       <c r="O22" s="6"/>
       <c r="R22" s="2"/>
       <c r="Z22" s="3"/>
+      <c r="AM22" s="6"/>
       <c r="BH22" s="6"/>
       <c r="BI22" s="3"/>
       <c r="BK22" s="3"/>
       <c r="BM22" s="4"/>
     </row>
-    <row r="23" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:65" x14ac:dyDescent="0.3">
+      <c r="A23" s="7"/>
       <c r="B23" s="2"/>
       <c r="F23" s="3"/>
       <c r="G23" s="4"/>
@@ -1214,14 +1435,12 @@
       <c r="O23" s="6"/>
       <c r="R23" s="2"/>
       <c r="Z23" s="3"/>
-      <c r="AM23" s="6"/>
-      <c r="BH23" s="6"/>
       <c r="BI23" s="3"/>
       <c r="BK23" s="3"/>
       <c r="BM23" s="4"/>
     </row>
-    <row r="24" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="8"/>
+    <row r="24" spans="1:65" x14ac:dyDescent="0.3">
+      <c r="A24" s="7"/>
       <c r="B24" s="2"/>
       <c r="F24" s="3"/>
       <c r="G24" s="4"/>
@@ -1237,34 +1456,15 @@
       <c r="BK24" s="3"/>
       <c r="BM24" s="4"/>
     </row>
-    <row r="25" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="8"/>
-      <c r="B25" s="2"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
-      <c r="J25" s="5"/>
-      <c r="K25" s="4"/>
-      <c r="N25" s="4"/>
-      <c r="O25" s="6"/>
-      <c r="R25" s="2"/>
-      <c r="Z25" s="3"/>
-      <c r="BI25" s="3"/>
-      <c r="BK25" s="3"/>
-      <c r="BM25" s="4"/>
-    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="AB2" r:id="rId1" display="joseph.m.landsr@gmail.com"/>
-    <hyperlink ref="AT2" r:id="rId2" display="joseph.m.landsr@gmail.com"/>
+    <hyperlink ref="AB2" r:id="rId1"/>
+    <hyperlink ref="AT2" r:id="rId2"/>
   </hyperlinks>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
     <oddHeader>&amp;L&amp;"Calibri,Bold"&amp;17 Custom Report - Extreme Military Challenge! Military Summer Camp 2015</oddHeader>
-    <oddFooter/>
   </headerFooter>
 </worksheet>
 </file>